--- a/data/redundancy by hand.xlsx
+++ b/data/redundancy by hand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nightraven/Coding/optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94370B35-D957-6D4C-89A9-D15200775B97}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641E0B98-D7E7-244C-BFDE-5D0AC50E894D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="1480" windowWidth="27640" windowHeight="15920" xr2:uid="{A0B07668-DFB1-0141-AA5B-9D4DAB0F4EBF}"/>
+    <workbookView xWindow="5780" yWindow="960" windowWidth="27640" windowHeight="15920" xr2:uid="{A0B07668-DFB1-0141-AA5B-9D4DAB0F4EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED59F380-1ED0-4B41-BC09-EEEA6B1CE1F4}">
   <dimension ref="A2:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="141" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:D33"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
